--- a/data/case1/5/Q2_5.xlsx
+++ b/data/case1/5/Q2_5.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.21193993974097225</v>
+        <v>0.18419135961709543</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999595810038</v>
+        <v>-0.0059999999397248871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999626640914</v>
+        <v>-0.003999999945806465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999335402805</v>
+        <v>-0.0079999999006901135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999623768758</v>
+        <v>-0.0029999999425811552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.048768335054720779</v>
+        <v>-0.0019999999340409857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999908907764</v>
+        <v>-0.0099999998552031677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.038417740689066893</v>
+        <v>-0.0099999998529951561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999608883989</v>
+        <v>0.0043612832179240613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999632140941</v>
+        <v>-0.031661300470071652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999566738822</v>
+        <v>-0.0029999999172858338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.030008658997557447</v>
+        <v>0.043250399183788257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999538882776</v>
+        <v>-0.0034999999072695687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999249329434</v>
+        <v>-0.0079999998618998092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997037514277</v>
+        <v>-0.00099999992898602841</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014647313351444424</v>
+        <v>-0.0019999999183037964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999637683175</v>
+        <v>-0.0019999999169417748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999506470374</v>
+        <v>-0.0039999998972435336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999722901691</v>
+        <v>-0.0039999999589985791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999703912437</v>
+        <v>-0.0039999999554982679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999700777167</v>
+        <v>-0.0039999999550026644</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999698281385</v>
+        <v>-0.0039999999548285814</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.052521848746962085</v>
+        <v>-0.0049999999325809341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999851751937</v>
+        <v>-0.019999999780016431</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999849851235</v>
+        <v>-0.019999999777065902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999558890096</v>
+        <v>-0.0024999999271191342</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999529553563</v>
+        <v>-0.0024999999239989634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999448669925</v>
+        <v>-0.0019999999152773285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999904111931</v>
+        <v>-0.0069999998570891009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999558627337</v>
+        <v>-0.059999999337757348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998965695198</v>
+        <v>0.056032308425193023</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998767703602</v>
+        <v>-0.04486670584768504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999151945076</v>
+        <v>-0.0039999998799356007</v>
       </c>
     </row>
   </sheetData>
